--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
   <si>
     <t>TC_ID</t>
   </si>
@@ -432,6 +432,54 @@
   </si>
   <si>
     <t>PRO6326</t>
+  </si>
+  <si>
+    <t>CON23396</t>
+  </si>
+  <si>
+    <t>CON23397</t>
+  </si>
+  <si>
+    <t>CON23398</t>
+  </si>
+  <si>
+    <t>ACC39583</t>
+  </si>
+  <si>
+    <t>ACC39584</t>
+  </si>
+  <si>
+    <t>ACC39585</t>
+  </si>
+  <si>
+    <t>PRO6328</t>
+  </si>
+  <si>
+    <t>PRO6329</t>
+  </si>
+  <si>
+    <t>TT502</t>
+  </si>
+  <si>
+    <t>CON23402</t>
+  </si>
+  <si>
+    <t>CON23403</t>
+  </si>
+  <si>
+    <t>CON23404</t>
+  </si>
+  <si>
+    <t>PRO6334</t>
+  </si>
+  <si>
+    <t>PRO6335</t>
+  </si>
+  <si>
+    <t>PRO6336</t>
+  </si>
+  <si>
+    <t>TT503</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1347,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,7 +1480,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,7 +1514,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1914,7 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
         <v>62</v>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>TC_ID</t>
   </si>
@@ -480,6 +480,66 @@
   </si>
   <si>
     <t>TT503</t>
+  </si>
+  <si>
+    <t>CON23414</t>
+  </si>
+  <si>
+    <t>CON23415</t>
+  </si>
+  <si>
+    <t>CON23416</t>
+  </si>
+  <si>
+    <t>ACC39629</t>
+  </si>
+  <si>
+    <t>ACC39630</t>
+  </si>
+  <si>
+    <t>ACC39631</t>
+  </si>
+  <si>
+    <t>PRO6339</t>
+  </si>
+  <si>
+    <t>PRO6340</t>
+  </si>
+  <si>
+    <t>PRO6341</t>
+  </si>
+  <si>
+    <t>TT504</t>
+  </si>
+  <si>
+    <t>CON23440</t>
+  </si>
+  <si>
+    <t>CON23441</t>
+  </si>
+  <si>
+    <t>CON23442</t>
+  </si>
+  <si>
+    <t>ACC39694</t>
+  </si>
+  <si>
+    <t>ACC39695</t>
+  </si>
+  <si>
+    <t>ACC39696</t>
+  </si>
+  <si>
+    <t>PRO6349</t>
+  </si>
+  <si>
+    <t>PRO6350</t>
+  </si>
+  <si>
+    <t>PRO6351</t>
+  </si>
+  <si>
+    <t>TT505</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,7 +1540,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,7 +1574,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1635,7 +1695,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1974,7 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
         <v>62</v>
